--- a/data/trans_orig/P25C_R_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P25C_R_2023-Edad-trans_orig.xlsx
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6083</v>
+        <v>6721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04747212003723694</v>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2363797680705193</v>
+        <v>0.2611591994941471</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5649</v>
+        <v>5506</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03173691859444144</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1658002311520957</v>
+        <v>0.1616232915268639</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>2</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>7955</v>
+        <v>8554</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.03850795800638708</v>
+        <v>0.03850795800638709</v>
       </c>
       <c r="V7" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1330251235267954</v>
+        <v>0.1430324212974388</v>
       </c>
     </row>
     <row r="8">
@@ -981,16 +981,16 @@
         <v>24512</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>19651</v>
+        <v>19013</v>
       </c>
       <c r="F8" s="5" t="n">
         <v>25734</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9525278799627631</v>
+        <v>0.952527879962763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7636202319294809</v>
+        <v>0.7388408005058522</v>
       </c>
       <c r="I8" s="6" t="n">
         <v>1</v>
@@ -1002,7 +1002,7 @@
         <v>32988</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>28420</v>
+        <v>28563</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>34069</v>
@@ -1011,7 +1011,7 @@
         <v>0.9682630814055585</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8341997688479043</v>
+        <v>0.8383767084731364</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
         <v>57499</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>51847</v>
+        <v>51248</v>
       </c>
       <c r="T8" s="5" t="n">
         <v>59802</v>
@@ -1032,7 +1032,7 @@
         <v>0.9614920419936129</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8669748764732054</v>
+        <v>0.8569675787025618</v>
       </c>
       <c r="W8" s="6" t="n">
         <v>1</v>
@@ -1130,16 +1130,16 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8698</v>
+        <v>8931</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05670070204377489</v>
+        <v>0.05670070204377488</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1764970836124618</v>
+        <v>0.1812239492093338</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1148,19 +1148,19 @@
         <v>3909</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1486</v>
+        <v>1449</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8821</v>
+        <v>8483</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.06917769228182732</v>
+        <v>0.06917769228182734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02630453741649632</v>
+        <v>0.02564982595984306</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1561248629518539</v>
+        <v>0.1501354980005374</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>7</v>
@@ -1169,19 +1169,19 @@
         <v>6703</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2624</v>
+        <v>2948</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13429</v>
+        <v>13006</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06336491586642791</v>
+        <v>0.06336491586642794</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0248084208064751</v>
+        <v>0.0278680995881739</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1269520475975196</v>
+        <v>0.1229534755148328</v>
       </c>
     </row>
     <row r="11">
@@ -1198,16 +1198,16 @@
         <v>46488</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>40584</v>
+        <v>40351</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>49282</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9432992979562251</v>
+        <v>0.943299297956225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8235029163875383</v>
+        <v>0.8187760507906661</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1219,19 +1219,19 @@
         <v>52592</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47680</v>
+        <v>48018</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>55015</v>
+        <v>55052</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9308223077181728</v>
+        <v>0.9308223077181725</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8438751370481461</v>
+        <v>0.8498645019994626</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9736954625835037</v>
+        <v>0.974350174040157</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>108</v>
@@ -1240,19 +1240,19 @@
         <v>99080</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>92354</v>
+        <v>92777</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>103159</v>
+        <v>102835</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9366350841335721</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8730479524024811</v>
+        <v>0.8770465244851673</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9751915791935252</v>
+        <v>0.9721319004118263</v>
       </c>
     </row>
     <row r="12">
@@ -1344,19 +1344,19 @@
         <v>6052</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2173</v>
+        <v>2252</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>12868</v>
+        <v>13041</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.05336903975204168</v>
+        <v>0.05336903975204167</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01916105409827422</v>
+        <v>0.01986424754357552</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1134806562845177</v>
+        <v>0.1150072619561044</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>11</v>
@@ -1365,19 +1365,19 @@
         <v>7215</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>3959</v>
+        <v>3966</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>11992</v>
+        <v>12375</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.07801300695168764</v>
+        <v>0.07801300695168766</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04280918551009238</v>
+        <v>0.04288237368395247</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1296749332309427</v>
+        <v>0.1338058741572972</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>16</v>
@@ -1386,19 +1386,19 @@
         <v>13266</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>7771</v>
+        <v>8056</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21715</v>
+        <v>20291</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.06443947878520483</v>
+        <v>0.06443947878520484</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03774875868953645</v>
+        <v>0.03913286427855327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1054768561394927</v>
+        <v>0.09855998668258469</v>
       </c>
     </row>
     <row r="14">
@@ -1415,19 +1415,19 @@
         <v>107340</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>100524</v>
+        <v>100351</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>111219</v>
+        <v>111140</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9466309602479583</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8865193437154836</v>
+        <v>0.8849927380438956</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.980838945901726</v>
+        <v>0.9801357524564244</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>127</v>
@@ -1436,19 +1436,19 @@
         <v>85266</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>80489</v>
+        <v>80106</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88522</v>
+        <v>88515</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9219869930483123</v>
+        <v>0.9219869930483121</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8703250667690574</v>
+        <v>0.8661941258427032</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9571908144899075</v>
+        <v>0.9571176263160478</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>223</v>
@@ -1457,19 +1457,19 @@
         <v>192607</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>184158</v>
+        <v>185582</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>198102</v>
+        <v>197817</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9355605212147952</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8945231438605074</v>
+        <v>0.9014400133174152</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9622512413104636</v>
+        <v>0.9608671357214468</v>
       </c>
     </row>
     <row r="15">
@@ -1561,19 +1561,19 @@
         <v>17822</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11110</v>
+        <v>11223</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27627</v>
+        <v>26661</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1079574754126586</v>
+        <v>0.1079574754126585</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06729947960443314</v>
+        <v>0.06798280370043705</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1673517530643499</v>
+        <v>0.1614989877488056</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1582,19 +1582,19 @@
         <v>11828</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7031</v>
+        <v>7150</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17319</v>
+        <v>17621</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1253898777759239</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07453570575919084</v>
+        <v>0.07580575022504302</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1836102107324968</v>
+        <v>0.1868125393433822</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>36</v>
@@ -1603,19 +1603,19 @@
         <v>29649</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>21482</v>
+        <v>20951</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>40364</v>
+        <v>39906</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1142962614780767</v>
+        <v>0.1142962614780768</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.08281328066914621</v>
+        <v>0.0807644643471329</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1556011195697499</v>
+        <v>0.1538338022320806</v>
       </c>
     </row>
     <row r="17">
@@ -1632,19 +1632,19 @@
         <v>147260</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>137455</v>
+        <v>138421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>153972</v>
+        <v>153859</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8920425245873417</v>
+        <v>0.8920425245873415</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.83264824693565</v>
+        <v>0.8385010122511934</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9327005203955669</v>
+        <v>0.9320171962995629</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>131</v>
@@ -1653,19 +1653,19 @@
         <v>82498</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77007</v>
+        <v>76705</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>87295</v>
+        <v>87176</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8746101222240761</v>
+        <v>0.8746101222240762</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8163897892675032</v>
+        <v>0.8131874606566171</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9254642942408092</v>
+        <v>0.9241942497749569</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>291</v>
@@ -1674,19 +1674,19 @@
         <v>229759</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>219044</v>
+        <v>219502</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>237926</v>
+        <v>238457</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8857037385219233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.84439888043025</v>
+        <v>0.8461661977679196</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9171867193308538</v>
+        <v>0.9192355356528672</v>
       </c>
     </row>
     <row r="18">
@@ -1778,19 +1778,19 @@
         <v>12473</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>7339</v>
+        <v>7375</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>19893</v>
+        <v>19692</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07268419531306901</v>
+        <v>0.07268419531306899</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04276733371522693</v>
+        <v>0.04297528442884708</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1159280922936006</v>
+        <v>0.1147512148258723</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>8</v>
@@ -1799,19 +1799,19 @@
         <v>4748</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2354</v>
+        <v>2267</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8637</v>
+        <v>8845</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09769862931428551</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04844462098524115</v>
+        <v>0.0466579717664383</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1777272883085223</v>
+        <v>0.1820039204550975</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>24</v>
@@ -1820,19 +1820,19 @@
         <v>17221</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>11169</v>
+        <v>11086</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>24863</v>
+        <v>25059</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07820484931577491</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05072340112724339</v>
+        <v>0.05034583591380283</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1129130851340824</v>
+        <v>0.1137998187280137</v>
       </c>
     </row>
     <row r="20">
@@ -1849,19 +1849,19 @@
         <v>159129</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>151709</v>
+        <v>151910</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>164263</v>
+        <v>164227</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9273158046869311</v>
+        <v>0.9273158046869309</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8840719077063997</v>
+        <v>0.8852487851741273</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9572326662847731</v>
+        <v>0.9570247155711525</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1870,19 +1870,19 @@
         <v>43850</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>39961</v>
+        <v>39753</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>46244</v>
+        <v>46331</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9023013706857146</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8222727116914776</v>
+        <v>0.8179960795449024</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9515553790147588</v>
+        <v>0.9533420282335618</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>299</v>
@@ -1891,19 +1891,19 @@
         <v>202979</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>195337</v>
+        <v>195141</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>209031</v>
+        <v>209114</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9217951506842251</v>
+        <v>0.9217951506842249</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8870869148659175</v>
+        <v>0.8862001812719863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9492765988727565</v>
+        <v>0.9496541640861972</v>
       </c>
     </row>
     <row r="21">
@@ -1995,19 +1995,19 @@
         <v>8549</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>4747</v>
+        <v>4439</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14356</v>
+        <v>14262</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06644656262407533</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03689783292429542</v>
+        <v>0.03450134699466043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1115785901915286</v>
+        <v>0.11084527672266</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -2016,19 +2016,19 @@
         <v>1819</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>505</v>
+        <v>483</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4483</v>
+        <v>4753</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.09263956112126491</v>
+        <v>0.09263956112126492</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02571408997639375</v>
+        <v>0.0246181404915566</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2282931125233222</v>
+        <v>0.2420534683269193</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>15</v>
@@ -2037,19 +2037,19 @@
         <v>10368</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6453</v>
+        <v>5788</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>17513</v>
+        <v>16637</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.06991456947558933</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04351121843848707</v>
+        <v>0.0390300686720786</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1180934288075768</v>
+        <v>0.1121901016174916</v>
       </c>
     </row>
     <row r="23">
@@ -2066,19 +2066,19 @@
         <v>120113</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>114306</v>
+        <v>114400</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>123915</v>
+        <v>124223</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9335534373759247</v>
+        <v>0.9335534373759248</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8884214098084715</v>
+        <v>0.88915472327734</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9631021670757045</v>
+        <v>0.9654986530053399</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>31</v>
@@ -2087,19 +2087,19 @@
         <v>17816</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15152</v>
+        <v>14882</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>19130</v>
+        <v>19152</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.907360438878735</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7717068874766779</v>
+        <v>0.757946531673081</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9742859100236063</v>
+        <v>0.9753818595084436</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>205</v>
@@ -2108,19 +2108,19 @@
         <v>137929</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>130784</v>
+        <v>131660</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>141844</v>
+        <v>142509</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9300854305244108</v>
+        <v>0.9300854305244106</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8819065711924228</v>
+        <v>0.8878098983825082</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9564887815615128</v>
+        <v>0.9609699313279213</v>
       </c>
     </row>
     <row r="24">
@@ -2212,19 +2212,19 @@
         <v>48911</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>36724</v>
+        <v>37643</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>63617</v>
+        <v>62916</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.07408350723436667</v>
+        <v>0.07408350723436666</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05562381435797243</v>
+        <v>0.0570154865073502</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09635694409280827</v>
+        <v>0.09529560687453814</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>46</v>
@@ -2233,19 +2233,19 @@
         <v>30599</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22843</v>
+        <v>22437</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>40238</v>
+        <v>39750</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08362903563916922</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06243160457059749</v>
+        <v>0.06132258797051911</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1099719240897835</v>
+        <v>0.1086380149484811</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>100</v>
@@ -2254,19 +2254,19 @@
         <v>79510</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>64402</v>
+        <v>65486</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>95920</v>
+        <v>96644</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07748725350339865</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06276297852587792</v>
+        <v>0.0638195084882839</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09347919541700377</v>
+        <v>0.09418486680029235</v>
       </c>
     </row>
     <row r="26">
@@ -2283,19 +2283,19 @@
         <v>611308</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>596602</v>
+        <v>597303</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>623495</v>
+        <v>622576</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9259164927656333</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.9036430559071917</v>
+        <v>0.9047043931254618</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9443761856420276</v>
+        <v>0.9429845134926499</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>479</v>
@@ -2304,19 +2304,19 @@
         <v>335291</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>325652</v>
+        <v>326140</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>343047</v>
+        <v>343453</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.9163709643608309</v>
+        <v>0.9163709643608308</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8900280759102166</v>
+        <v>0.8913619850515189</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.9375683954294025</v>
+        <v>0.9386774120294807</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1185</v>
@@ -2325,19 +2325,19 @@
         <v>946599</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>930189</v>
+        <v>929465</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>961707</v>
+        <v>960623</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.9225127464966013</v>
+        <v>0.9225127464966012</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9065208045829963</v>
+        <v>0.9058151331997082</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9372370214741222</v>
+        <v>0.9361804915117162</v>
       </c>
     </row>
     <row r="27">
